--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H2">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I2">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J2">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>122.2687573408583</v>
+        <v>1.438471084875</v>
       </c>
       <c r="R2">
-        <v>1100.418816067725</v>
+        <v>12.946239763875</v>
       </c>
       <c r="S2">
-        <v>0.8419107374995529</v>
+        <v>0.02692841337005778</v>
       </c>
       <c r="T2">
-        <v>0.8419107374995531</v>
+        <v>0.02692841337005778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H3">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I3">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J3">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>20.7871322988</v>
+        <v>39.756557770545</v>
       </c>
       <c r="R3">
-        <v>187.0841906892</v>
+        <v>357.8090199349049</v>
       </c>
       <c r="S3">
-        <v>0.1431347652891802</v>
+        <v>0.7442492470461094</v>
       </c>
       <c r="T3">
-        <v>0.1431347652891802</v>
+        <v>0.7442492470461093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3120586666666667</v>
+        <v>18.975105</v>
       </c>
       <c r="H4">
-        <v>0.936176</v>
+        <v>56.925315</v>
       </c>
       <c r="I4">
-        <v>0.005267464653066949</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J4">
-        <v>0.00526746465306695</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>0.6538239661457778</v>
+        <v>9.830944975184998</v>
       </c>
       <c r="R4">
-        <v>5.884415695312001</v>
+        <v>88.47850477666499</v>
       </c>
       <c r="S4">
-        <v>0.004502061111148038</v>
+        <v>0.18403689368082</v>
       </c>
       <c r="T4">
-        <v>0.004502061111148039</v>
+        <v>0.18403689368082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>0.936176</v>
       </c>
       <c r="I5">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J5">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>0.111157793536</v>
+        <v>0.02365664742222222</v>
       </c>
       <c r="R5">
-        <v>1.000420141824</v>
+        <v>0.2129098268</v>
       </c>
       <c r="S5">
-        <v>0.0007654035419189109</v>
+        <v>0.000442856298908969</v>
       </c>
       <c r="T5">
-        <v>0.000765403541918911</v>
+        <v>0.000442856298908969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5738856666666666</v>
+        <v>0.3120586666666667</v>
       </c>
       <c r="H6">
-        <v>1.721657</v>
+        <v>0.936176</v>
       </c>
       <c r="I6">
-        <v>0.00968703255819983</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J6">
-        <v>0.009687032558199832</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>1.202402761962111</v>
+        <v>0.6538239661457778</v>
       </c>
       <c r="R6">
-        <v>10.821624857659</v>
+        <v>5.884415695312</v>
       </c>
       <c r="S6">
-        <v>0.008279431459934667</v>
+        <v>0.01223969130610236</v>
       </c>
       <c r="T6">
-        <v>0.008279431459934671</v>
+        <v>0.01223969130610236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5738856666666666</v>
+        <v>0.3120586666666667</v>
       </c>
       <c r="H7">
-        <v>1.721657</v>
+        <v>0.936176</v>
       </c>
       <c r="I7">
-        <v>0.00968703255819983</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J7">
-        <v>0.009687032558199832</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>0.204422665552</v>
+        <v>0.161676659024</v>
       </c>
       <c r="R7">
-        <v>1.839803989968</v>
+        <v>1.455089931216</v>
       </c>
       <c r="S7">
-        <v>0.001407601098265162</v>
+        <v>0.0030266134316259</v>
       </c>
       <c r="T7">
-        <v>0.001407601098265162</v>
+        <v>0.0030266134316259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5775933333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.73278</v>
+      </c>
+      <c r="I8">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="J8">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>0.04378638794444444</v>
+      </c>
+      <c r="R8">
+        <v>0.3940774915</v>
+      </c>
+      <c r="S8">
+        <v>0.0008196883252972552</v>
+      </c>
+      <c r="T8">
+        <v>0.0008196883252972552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5775933333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.73278</v>
+      </c>
+      <c r="I9">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="J9">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>1.210171049095556</v>
+      </c>
+      <c r="R9">
+        <v>10.89153944186</v>
+      </c>
+      <c r="S9">
+        <v>0.02265459945714059</v>
+      </c>
+      <c r="T9">
+        <v>0.02265459945714059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5775933333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.73278</v>
+      </c>
+      <c r="I10">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="J10">
+        <v>0.02907628486637583</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>0.2992493732199999</v>
+      </c>
+      <c r="R10">
+        <v>2.69324435898</v>
+      </c>
+      <c r="S10">
+        <v>0.005601997083937984</v>
+      </c>
+      <c r="T10">
+        <v>0.005601997083937984</v>
       </c>
     </row>
   </sheetData>
